--- a/TEMP.xlsx
+++ b/TEMP.xlsx
@@ -478,7 +478,7 @@
         <v>22880</v>
       </c>
       <c r="B7" t="n">
-        <v>1024.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +494,7 @@
         <v>22887</v>
       </c>
       <c r="B9" t="n">
-        <v>2480.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -510,7 +510,7 @@
         <v>22890</v>
       </c>
       <c r="B11" t="n">
-        <v>14233.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>22894</v>
       </c>
       <c r="B14" t="n">
-        <v>1786.72</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15">
@@ -670,7 +670,7 @@
         <v>22919</v>
       </c>
       <c r="B31" t="n">
-        <v>122.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>22925</v>
       </c>
       <c r="B34" t="n">
-        <v>173.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -710,7 +710,7 @@
         <v>22928</v>
       </c>
       <c r="B36" t="n">
-        <v>770</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -750,7 +750,7 @@
         <v>22935</v>
       </c>
       <c r="B41" t="n">
-        <v>326.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -798,7 +798,7 @@
         <v>22945</v>
       </c>
       <c r="B47" t="n">
-        <v>113.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -878,7 +878,7 @@
         <v>22961</v>
       </c>
       <c r="B57" t="n">
-        <v>60.192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -894,7 +894,7 @@
         <v>22963</v>
       </c>
       <c r="B59" t="n">
-        <v>2386.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -974,7 +974,7 @@
         <v>22980</v>
       </c>
       <c r="B69" t="n">
-        <v>5320.36</v>
+        <v>4315.8</v>
       </c>
     </row>
     <row r="70">
@@ -990,7 +990,7 @@
         <v>22982</v>
       </c>
       <c r="B71" t="n">
-        <v>168.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1070,7 +1070,7 @@
         <v>22995</v>
       </c>
       <c r="B81" t="n">
-        <v>470.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>22998</v>
       </c>
       <c r="B84" t="n">
-        <v>8267.200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>23004</v>
       </c>
       <c r="B87" t="n">
-        <v>2029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1134,7 +1134,7 @@
         <v>23011</v>
       </c>
       <c r="B89" t="n">
-        <v>20.736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1182,7 +1182,7 @@
         <v>23021</v>
       </c>
       <c r="B95" t="n">
-        <v>963.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>23028</v>
       </c>
       <c r="B98" t="n">
-        <v>4212.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -1214,7 +1214,7 @@
         <v>23030</v>
       </c>
       <c r="B99" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1246,7 +1246,7 @@
         <v>23040</v>
       </c>
       <c r="B103" t="n">
-        <v>5873.13</v>
+        <v>546.75</v>
       </c>
     </row>
     <row r="104">
@@ -1254,7 +1254,7 @@
         <v>23041</v>
       </c>
       <c r="B104" t="n">
-        <v>1067.04</v>
+        <v>588</v>
       </c>
     </row>
     <row r="105">
@@ -1262,7 +1262,7 @@
         <v>23043</v>
       </c>
       <c r="B105" t="n">
-        <v>233.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -1294,7 +1294,7 @@
         <v>23048</v>
       </c>
       <c r="B109" t="n">
-        <v>2845.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -1350,7 +1350,7 @@
         <v>23064</v>
       </c>
       <c r="B116" t="n">
-        <v>5297.400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -1438,7 +1438,7 @@
         <v>23082</v>
       </c>
       <c r="B127" t="n">
-        <v>22076.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -1494,7 +1494,7 @@
         <v>23095</v>
       </c>
       <c r="B134" t="n">
-        <v>579.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -1502,7 +1502,7 @@
         <v>23098</v>
       </c>
       <c r="B135" t="n">
-        <v>5937.09</v>
+        <v>2294.4</v>
       </c>
     </row>
     <row r="136">
@@ -1510,7 +1510,7 @@
         <v>23099</v>
       </c>
       <c r="B136" t="n">
-        <v>1000.764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -1534,7 +1534,7 @@
         <v>23103</v>
       </c>
       <c r="B139" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -1598,7 +1598,7 @@
         <v>23114</v>
       </c>
       <c r="B147" t="n">
-        <v>2491.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -1630,7 +1630,7 @@
         <v>23120</v>
       </c>
       <c r="B151" t="n">
-        <v>1550.35</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="152">
@@ -1678,7 +1678,7 @@
         <v>23132</v>
       </c>
       <c r="B157" t="n">
-        <v>3672.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -1694,7 +1694,7 @@
         <v>23136</v>
       </c>
       <c r="B159" t="n">
-        <v>143.136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -1734,7 +1734,7 @@
         <v>23143</v>
       </c>
       <c r="B164" t="n">
-        <v>3672.144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -1742,7 +1742,7 @@
         <v>23146</v>
       </c>
       <c r="B165" t="n">
-        <v>12146.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -1750,7 +1750,7 @@
         <v>23148</v>
       </c>
       <c r="B166" t="n">
-        <v>3755.7816</v>
+        <v>2665.8</v>
       </c>
     </row>
     <row r="167">
@@ -1766,7 +1766,7 @@
         <v>23153</v>
       </c>
       <c r="B168" t="n">
-        <v>1276.56</v>
+        <v>450</v>
       </c>
     </row>
     <row r="169">
@@ -1806,7 +1806,7 @@
         <v>23161</v>
       </c>
       <c r="B173" t="n">
-        <v>442.9440000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -1814,7 +1814,7 @@
         <v>23165</v>
       </c>
       <c r="B174" t="n">
-        <v>2863.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -1902,7 +1902,7 @@
         <v>23180</v>
       </c>
       <c r="B185" t="n">
-        <v>736.6799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -1918,7 +1918,7 @@
         <v>23183</v>
       </c>
       <c r="B187" t="n">
-        <v>438.504</v>
+        <v>327.8</v>
       </c>
     </row>
     <row r="188">
@@ -1942,7 +1942,7 @@
         <v>23186</v>
       </c>
       <c r="B190" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -1950,7 +1950,7 @@
         <v>23188</v>
       </c>
       <c r="B191" t="n">
-        <v>291.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -1982,7 +1982,7 @@
         <v>23198</v>
       </c>
       <c r="B195" t="n">
-        <v>884.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -2030,7 +2030,7 @@
         <v>23205</v>
       </c>
       <c r="B201" t="n">
-        <v>1053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -2046,7 +2046,7 @@
         <v>23208</v>
       </c>
       <c r="B203" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -2086,7 +2086,7 @@
         <v>23215</v>
       </c>
       <c r="B208" t="n">
-        <v>170.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -2094,7 +2094,7 @@
         <v>23216</v>
       </c>
       <c r="B209" t="n">
-        <v>213.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -2102,7 +2102,7 @@
         <v>23218</v>
       </c>
       <c r="B210" t="n">
-        <v>3812.380000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -2142,7 +2142,7 @@
         <v>23227</v>
       </c>
       <c r="B215" t="n">
-        <v>1151.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -2158,7 +2158,7 @@
         <v>23232</v>
       </c>
       <c r="B217" t="n">
-        <v>2068.896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -2254,7 +2254,7 @@
         <v>23256</v>
       </c>
       <c r="B229" t="n">
-        <v>7345.4842</v>
+        <v>1582.42</v>
       </c>
     </row>
     <row r="230">
@@ -2270,7 +2270,7 @@
         <v>23260</v>
       </c>
       <c r="B231" t="n">
-        <v>2078.52</v>
+        <v>128.36</v>
       </c>
     </row>
     <row r="232">
@@ -2310,7 +2310,7 @@
         <v>23268</v>
       </c>
       <c r="B236" t="n">
-        <v>860.8600000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>23283</v>
       </c>
       <c r="B239" t="n">
-        <v>31.104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -2342,7 +2342,7 @@
         <v>23285</v>
       </c>
       <c r="B240" t="n">
-        <v>31363.32</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="241">
@@ -2358,7 +2358,7 @@
         <v>23288</v>
       </c>
       <c r="B242" t="n">
-        <v>3409.136</v>
+        <v>1473.6</v>
       </c>
     </row>
     <row r="243">
@@ -2462,7 +2462,7 @@
         <v>23306</v>
       </c>
       <c r="B255" t="n">
-        <v>5763.565500000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -2478,7 +2478,7 @@
         <v>23308</v>
       </c>
       <c r="B257" t="n">
-        <v>1764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -2494,7 +2494,7 @@
         <v>23311</v>
       </c>
       <c r="B259" t="n">
-        <v>2568.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -2502,7 +2502,7 @@
         <v>23313</v>
       </c>
       <c r="B260" t="n">
-        <v>24.688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -2558,7 +2558,7 @@
         <v>23322</v>
       </c>
       <c r="B267" t="n">
-        <v>636.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -2574,7 +2574,7 @@
         <v>23324</v>
       </c>
       <c r="B269" t="n">
-        <v>5894.400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -2606,7 +2606,7 @@
         <v>23332</v>
       </c>
       <c r="B273" t="n">
-        <v>2068.004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -2646,7 +2646,7 @@
         <v>23342</v>
       </c>
       <c r="B278" t="n">
-        <v>3635.97</v>
+        <v>3149.25</v>
       </c>
     </row>
     <row r="279">
@@ -2654,7 +2654,7 @@
         <v>23343</v>
       </c>
       <c r="B279" t="n">
-        <v>187.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -2662,7 +2662,7 @@
         <v>23344</v>
       </c>
       <c r="B280" t="n">
-        <v>1117.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -2766,7 +2766,7 @@
         <v>23369</v>
       </c>
       <c r="B293" t="n">
-        <v>287.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>23373</v>
       </c>
       <c r="B296" t="n">
-        <v>1131.312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -2838,7 +2838,7 @@
         <v>23389</v>
       </c>
       <c r="B302" t="n">
-        <v>3159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -2846,7 +2846,7 @@
         <v>23391</v>
       </c>
       <c r="B303" t="n">
-        <v>35109.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -2934,7 +2934,7 @@
         <v>23404</v>
       </c>
       <c r="B314" t="n">
-        <v>268.554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -2942,7 +2942,7 @@
         <v>23405</v>
       </c>
       <c r="B315" t="n">
-        <v>2152.72</v>
+        <v>547.2</v>
       </c>
     </row>
     <row r="316">
@@ -2950,7 +2950,7 @@
         <v>23406</v>
       </c>
       <c r="B316" t="n">
-        <v>2412.432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -3078,7 +3078,7 @@
         <v>23435</v>
       </c>
       <c r="B332" t="n">
-        <v>4312.099999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -3166,7 +3166,7 @@
         <v>23453</v>
       </c>
       <c r="B343" t="n">
-        <v>15557.824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -3174,7 +3174,7 @@
         <v>23459</v>
       </c>
       <c r="B344" t="n">
-        <v>486.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>144.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>247.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
